--- a/data/negative_signals/Indirectly connected (A-X-B) - Felodipine - Bullous eruptions.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Felodipine - Bullous eruptions.xlsx
@@ -191,25 +191,25 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>160505772</t>
+    <t>52704182</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>52696122</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>94323895</t>
   </si>
   <si>
     <t>is not administered to</t>
   </si>
   <si>
-    <t>118954379</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>117712111</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>117459011</t>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
@@ -221,13 +221,13 @@
     <t>woman</t>
   </si>
   <si>
-    <t>149447096</t>
-  </si>
-  <si>
-    <t>127921705</t>
-  </si>
-  <si>
-    <t>120547375</t>
+    <t>61505151</t>
+  </si>
+  <si>
+    <t>82980566</t>
+  </si>
+  <si>
+    <t>54216638</t>
   </si>
   <si>
     <t>301179</t>
@@ -236,10 +236,67 @@
     <t>child</t>
   </si>
   <si>
-    <t>122042184</t>
-  </si>
-  <si>
-    <t>136332181</t>
+    <t>55609855</t>
+  </si>
+  <si>
+    <t>69987932</t>
+  </si>
+  <si>
+    <t>4033983</t>
+  </si>
+  <si>
+    <t>pharmaceutical preparations</t>
+  </si>
+  <si>
+    <t>75697489</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>53231239</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>74030953</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>90892856</t>
+  </si>
+  <si>
+    <t>68515019</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>73609805</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>79733098</t>
+  </si>
+  <si>
+    <t>116415259</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>57105158</t>
+  </si>
+  <si>
+    <t>76350720</t>
+  </si>
+  <si>
+    <t>causes</t>
   </si>
   <si>
     <t>5648228</t>
@@ -251,34 +308,43 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>118947323</t>
+    <t>118080606</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>68558680</t>
+  </si>
+  <si>
+    <t>84885879</t>
+  </si>
+  <si>
+    <t>84885918</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>52697422</t>
   </si>
   <si>
     <t>uses</t>
   </si>
   <si>
-    <t>184274984</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>135012656</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>151261055</t>
-  </si>
-  <si>
-    <t>151261099</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>132508592</t>
+    <t>66163822</t>
+  </si>
+  <si>
+    <t>837528</t>
+  </si>
+  <si>
+    <t>captopril</t>
+  </si>
+  <si>
+    <t>132598163</t>
+  </si>
+  <si>
+    <t>74231788</t>
   </si>
   <si>
     <t>590091</t>
@@ -287,31 +353,13 @@
     <t>male population group</t>
   </si>
   <si>
-    <t>123784797</t>
-  </si>
-  <si>
-    <t>168224602</t>
-  </si>
-  <si>
-    <t>165773837</t>
-  </si>
-  <si>
-    <t>837528</t>
-  </si>
-  <si>
-    <t>captopril</t>
-  </si>
-  <si>
-    <t>198791408</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>140613064</t>
-  </si>
-  <si>
-    <t>causes</t>
+    <t>102029381</t>
+  </si>
+  <si>
+    <t>57413400</t>
+  </si>
+  <si>
+    <t>99578394</t>
   </si>
   <si>
     <t>5127262</t>
@@ -320,16 +368,13 @@
     <t>pain</t>
   </si>
   <si>
-    <t>122505964</t>
+    <t>56093954</t>
   </si>
   <si>
     <t>does not affect</t>
   </si>
   <si>
-    <t>179706364</t>
-  </si>
-  <si>
-    <t>is a</t>
+    <t>113483617</t>
   </si>
   <si>
     <t>4034949</t>
@@ -338,55 +383,10 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>131377654</t>
-  </si>
-  <si>
-    <t>193498222</t>
-  </si>
-  <si>
-    <t>4033983</t>
-  </si>
-  <si>
-    <t>pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>119525341</t>
-  </si>
-  <si>
-    <t>142093858</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>157077232</t>
-  </si>
-  <si>
-    <t>140081729</t>
-  </si>
-  <si>
-    <t>123486270</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>134900359</t>
-  </si>
-  <si>
-    <t>140439995</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>146184910</t>
-  </si>
-  <si>
-    <t>182612092</t>
-  </si>
-  <si>
-    <t>142812784</t>
+    <t>67854857</t>
+  </si>
+  <si>
+    <t>127281809</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74.0</v>
+        <v>42.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -686,7 +686,7 @@
         <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
         <v>71</v>
@@ -730,7 +730,7 @@
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
         <v>75</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -759,7 +759,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
         <v>56</v>
@@ -771,45 +771,69 @@
         <v>58</v>
       </c>
       <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>82</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>83</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" t="s">
         <v>85</v>
       </c>
-      <c r="R5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>86</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>87</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>88</v>
       </c>
-      <c r="V5" t="s">
-        <v>64</v>
+      <c r="W5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -821,13 +845,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -839,22 +863,40 @@
         <v>58</v>
       </c>
       <c r="K6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
         <v>91</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" t="s">
         <v>62</v>
-      </c>
-      <c r="M6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -871,10 +913,10 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
         <v>52</v>
@@ -889,16 +931,16 @@
         <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -915,13 +957,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -933,16 +975,22 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -959,10 +1007,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
         <v>58</v>
@@ -977,16 +1025,16 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -1003,13 +1051,13 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -1021,64 +1069,16 @@
         <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
         <v>105</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R10" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" t="s">
-        <v>118</v>
-      </c>
-      <c r="U10" t="s">
-        <v>119</v>
-      </c>
-      <c r="V10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W10" t="s">
-        <v>120</v>
-      </c>
-      <c r="X10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
